--- a/data/hotels_by_city/Houston/Houston_shard_142.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_142.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d8554779-Reviews-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Courtyard-Houston-I-10-WestPark-Row.h12009824.Hotel-Information?chkin=7%2F9%2F2018&amp;chkout=7%2F10%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530384880524&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=0f47c567-ac8a-4421-ab61-2a15707d3715&amp;mctc=9&amp;exp_dp=94&amp;exp_ts=1530384881023&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +145,387 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r568554336-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>8554779</t>
+  </si>
+  <si>
+    <t>568554336</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>Great place, but won't accommodate room request!</t>
+  </si>
+  <si>
+    <t>I would give this property 5 stars easily except for one problem.  At check-in, I requested a room with two beds.  Because I booked and paid for the room through a third party, I was denied due to the rate difference.  The young man at reception was very nice and just doing his job, but this would have been a VERY...EASY....FIX by Marriott.  I didn't put up a fight because it's not really my style, but I REALLY needed a room with two beds and the property was obviously nowhere near capacity.  Again, this is a beautiful hotel with very friendly staff.  I recommend it, but be aware of this issue that I had.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>CourtyardHouston, General Manager at Courtyard Houston I-10 West/Park Row, responded to this reviewResponded March 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2018</t>
+  </si>
+  <si>
+    <t>I would give this property 5 stars easily except for one problem.  At check-in, I requested a room with two beds.  Because I booked and paid for the room through a third party, I was denied due to the rate difference.  The young man at reception was very nice and just doing his job, but this would have been a VERY...EASY....FIX by Marriott.  I didn't put up a fight because it's not really my style, but I REALLY needed a room with two beds and the property was obviously nowhere near capacity.  Again, this is a beautiful hotel with very friendly staff.  I recommend it, but be aware of this issue that I had.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r562578003-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562578003</t>
+  </si>
+  <si>
+    <t>02/24/2018</t>
+  </si>
+  <si>
+    <t>Exceptional service A+</t>
+  </si>
+  <si>
+    <t>The service provided by the staff at this hotel has been exceptional.  I stayed only two nights however the front desk staff and restaurant / bar staff went out of their way to make me feel comfortable and even greeted me by name at each interaction with them.   Thank you Omar and staff for a great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>CourtyardHouston, General Manager at Courtyard Houston I-10 West/Park Row, responded to this reviewResponded February 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2018</t>
+  </si>
+  <si>
+    <t>The service provided by the staff at this hotel has been exceptional.  I stayed only two nights however the front desk staff and restaurant / bar staff went out of their way to make me feel comfortable and even greeted me by name at each interaction with them.   Thank you Omar and staff for a great experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r542461744-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>542461744</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>Customer Service Excellence</t>
+  </si>
+  <si>
+    <t>I really enjoy Courtyard Hotels and this first visit to this location didn't disappoint.  Front desk took care of me quickly after a warm greeting.  The GM gave me a quiet room on the top floor and due to my elite status I was given a complimentary market item.  It didn't seem busy at the hotel a few days before Thanksgiving and I called to order some room Service.  It was brought to me within 6-7 minutes by Gabriel who I had met at the front desk.  Helpful and friendly staff set this place apart Gabriel and the GM also recommended and told me how to find a good restaurant not too far away.  Went to Salata and it was excellent.My room was spotlessly clean and very quiet.  A great stay and I hope to return.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>I really enjoy Courtyard Hotels and this first visit to this location didn't disappoint.  Front desk took care of me quickly after a warm greeting.  The GM gave me a quiet room on the top floor and due to my elite status I was given a complimentary market item.  It didn't seem busy at the hotel a few days before Thanksgiving and I called to order some room Service.  It was brought to me within 6-7 minutes by Gabriel who I had met at the front desk.  Helpful and friendly staff set this place apart Gabriel and the GM also recommended and told me how to find a good restaurant not too far away.  Went to Salata and it was excellent.My room was spotlessly clean and very quiet.  A great stay and I hope to return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r486992002-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>486992002</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>A great place</t>
+  </si>
+  <si>
+    <t>I stayed here while I was a student for a NACE class. It's only a few minutes from the NACE HQ and it has all amenities to take care all of your needs. I checked in around midnight and the reception desk clerk Omar was very helpful and even did some research for me for near by facilities and slipped it under my door. I liked that the gym was clean, and all equipment was brand new or was very well cared for. Also their computers in their lobby were brand new and keyboards that was clean. I've travelled a lot and I've seen lots of dirty computers and/or fitness centers with missing or dirty equipment. They also have a pool and a little minishop if you forget any important toiletry items or just wanted some snacks without driving out for it. I would recommend this place to my friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>CourtyardHouston, General Manager at Courtyard Houston I-10 West/Park Row, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here while I was a student for a NACE class. It's only a few minutes from the NACE HQ and it has all amenities to take care all of your needs. I checked in around midnight and the reception desk clerk Omar was very helpful and even did some research for me for near by facilities and slipped it under my door. I liked that the gym was clean, and all equipment was brand new or was very well cared for. Also their computers in their lobby were brand new and keyboards that was clean. I've travelled a lot and I've seen lots of dirty computers and/or fitness centers with missing or dirty equipment. They also have a pool and a little minishop if you forget any important toiletry items or just wanted some snacks without driving out for it. I would recommend this place to my friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r471799384-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471799384</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>6 weeks of peace</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for 6 weeks while working.  This is your usual modern + clean hotel.  What I really loved about this hotel was the staff.  Everyone including the front desk (Omar thank you) and the cleaning crew were very pleasant and friendly. After working long days its nice to get a warm smile and attentive customer service.  I would def. stay here again.  Ps. My family came to visit me for a few days and also loved the service.  Hotel is very close to everything ...from Katy to City Center and to plenty of restaurants and shops.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for 6 weeks while working.  This is your usual modern + clean hotel.  What I really loved about this hotel was the staff.  Everyone including the front desk (Omar thank you) and the cleaning crew were very pleasant and friendly. After working long days its nice to get a warm smile and attentive customer service.  I would def. stay here again.  Ps. My family came to visit me for a few days and also loved the service.  Hotel is very close to everything ...from Katy to City Center and to plenty of restaurants and shops.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r471198225-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471198225</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Wish we stayed longer!</t>
+  </si>
+  <si>
+    <t>We were in town two nights for a business meeting, and it was so nice to have a new, clean, and friendly place to stay! The staff were all incredibly friendly and accommodating. The hotel is new, so it wasn't totally surprising that it is so clean, but it was still nice to see it's being well maintained. I also liked the new room configuration; very modern and different from other Courtyards we have stayed in previously. Overall it was a great stay and we would definitely choose this location again on our next trip to Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in town two nights for a business meeting, and it was so nice to have a new, clean, and friendly place to stay! The staff were all incredibly friendly and accommodating. The hotel is new, so it wasn't totally surprising that it is so clean, but it was still nice to see it's being well maintained. I also liked the new room configuration; very modern and different from other Courtyards we have stayed in previously. Overall it was a great stay and we would definitely choose this location again on our next trip to Houston. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r442172990-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442172990</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t>Quiet Oasis in a Crazy Crowded Houston/Katy</t>
+  </si>
+  <si>
+    <t>This is my favorite chain and the reason is obvious when you stay here, especially at this particular Courtyard. The management and staff are awesome, the rooms are so quiet and there are woods to look out on at the back of the hotel. The beds are plush and the walk in the showers are huge. They even have a tiny restaurant, with nice wine/cocktail selections and good food.  The booths in the restaurant have there own TV.  Lots of choices for lounging with friends while watching a game in the common area.  We will be staying here every time we come to Houston as long as they keep up the great work. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>This is my favorite chain and the reason is obvious when you stay here, especially at this particular Courtyard. The management and staff are awesome, the rooms are so quiet and there are woods to look out on at the back of the hotel. The beds are plush and the walk in the showers are huge. They even have a tiny restaurant, with nice wine/cocktail selections and good food.  The booths in the restaurant have there own TV.  Lots of choices for lounging with friends while watching a game in the common area.  We will be staying here every time we come to Houston as long as they keep up the great work. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r427651294-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>427651294</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t>Multi-night stay &amp; Meeting Room Use</t>
+  </si>
+  <si>
+    <t>The rooms were well maintained, comfortable bed, functional desk space and roomy (in our King room).  Fridge, microwave &amp; coffee maker provided. Large, well vented bathrooms, large &amp; roomy very nice shower, but no tub. Shower floor did become a little slippery and the only hand rails provided to hold onto were in the back of the shower area, out from under the shower head water stream. 
+The Courtyard by Marriott was a great place for our Assemblies of the Lord Jesus Christ General Board Fall Business meeting.  The meeting room was set up classroom style and in that style was set up for the maximum capacity of 36.  The meeting room had more space at one side for individual chairs against the wall (7 or 8), without being too crowded.  The room came with a complimentary free standing screen.  They also have a projector to use for a cost, but we brought our own. Back of the room has a counter area for food and beverage. Temperature controlled in the room and available for us to control. Very nice, modern, open and functional meeting room.  Catered lunch was excellent and offset the cost of the room.
+Starbucks coffee and breakfast/lunch area was the only guest F &amp; B area available and was not included in any room rate.  
+This Courtyard is located less than a block away and diagonally behind Texas Children's Hospital on Park Row Drive, which is...The rooms were well maintained, comfortable bed, functional desk space and roomy (in our King room).  Fridge, microwave &amp; coffee maker provided. Large, well vented bathrooms, large &amp; roomy very nice shower, but no tub. Shower floor did become a little slippery and the only hand rails provided to hold onto were in the back of the shower area, out from under the shower head water stream. The Courtyard by Marriott was a great place for our Assemblies of the Lord Jesus Christ General Board Fall Business meeting.  The meeting room was set up classroom style and in that style was set up for the maximum capacity of 36.  The meeting room had more space at one side for individual chairs against the wall (7 or 8), without being too crowded.  The room came with a complimentary free standing screen.  They also have a projector to use for a cost, but we brought our own. Back of the room has a counter area for food and beverage. Temperature controlled in the room and available for us to control. Very nice, modern, open and functional meeting room.  Catered lunch was excellent and offset the cost of the room.Starbucks coffee and breakfast/lunch area was the only guest F &amp; B area available and was not included in any room rate.  This Courtyard is located less than a block away and diagonally behind Texas Children's Hospital on Park Row Drive, which is an important landmark to note since our GPS could not find the hotel's exact address. Plenty of shopping centers, restaurants &amp; fast food places available along the I-10 frontage road from the hotel going west. Others available going east on the other side of I-10 on the frontage road.Our sales person, Kimberly, and the entire staff took very good care of us and were very friendly and helpful during our stay.  Thank you &amp; God bless you all!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>The rooms were well maintained, comfortable bed, functional desk space and roomy (in our King room).  Fridge, microwave &amp; coffee maker provided. Large, well vented bathrooms, large &amp; roomy very nice shower, but no tub. Shower floor did become a little slippery and the only hand rails provided to hold onto were in the back of the shower area, out from under the shower head water stream. 
+The Courtyard by Marriott was a great place for our Assemblies of the Lord Jesus Christ General Board Fall Business meeting.  The meeting room was set up classroom style and in that style was set up for the maximum capacity of 36.  The meeting room had more space at one side for individual chairs against the wall (7 or 8), without being too crowded.  The room came with a complimentary free standing screen.  They also have a projector to use for a cost, but we brought our own. Back of the room has a counter area for food and beverage. Temperature controlled in the room and available for us to control. Very nice, modern, open and functional meeting room.  Catered lunch was excellent and offset the cost of the room.
+Starbucks coffee and breakfast/lunch area was the only guest F &amp; B area available and was not included in any room rate.  
+This Courtyard is located less than a block away and diagonally behind Texas Children's Hospital on Park Row Drive, which is...The rooms were well maintained, comfortable bed, functional desk space and roomy (in our King room).  Fridge, microwave &amp; coffee maker provided. Large, well vented bathrooms, large &amp; roomy very nice shower, but no tub. Shower floor did become a little slippery and the only hand rails provided to hold onto were in the back of the shower area, out from under the shower head water stream. The Courtyard by Marriott was a great place for our Assemblies of the Lord Jesus Christ General Board Fall Business meeting.  The meeting room was set up classroom style and in that style was set up for the maximum capacity of 36.  The meeting room had more space at one side for individual chairs against the wall (7 or 8), without being too crowded.  The room came with a complimentary free standing screen.  They also have a projector to use for a cost, but we brought our own. Back of the room has a counter area for food and beverage. Temperature controlled in the room and available for us to control. Very nice, modern, open and functional meeting room.  Catered lunch was excellent and offset the cost of the room.Starbucks coffee and breakfast/lunch area was the only guest F &amp; B area available and was not included in any room rate.  This Courtyard is located less than a block away and diagonally behind Texas Children's Hospital on Park Row Drive, which is an important landmark to note since our GPS could not find the hotel's exact address. Plenty of shopping centers, restaurants &amp; fast food places available along the I-10 frontage road from the hotel going west. Others available going east on the other side of I-10 on the frontage road.Our sales person, Kimberly, and the entire staff took very good care of us and were very friendly and helpful during our stay.  Thank you &amp; God bless you all!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r391446506-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>391446506</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>Still a decent place</t>
+  </si>
+  <si>
+    <t>My daughter lives close by in a small apartment.  So when we come to visit this is our Go to hotel.  We have stayed quite a few times.  Our most recent stay was ok.  Not good enough for 5 stars. But still decent.Our beds were getting worn down.  Had that feeling that you were rolling to the edge of the bed.  Also on the second floor it smelt like someone had been smoking.  Maybe it was just musty, but it didn't have that nice clean smell that I like.Another annoying thing was the shower.  On our previous visits, we had a very nice large walk in shower.  This time we were greeted with the basic hotel tub and curve shower curtain.  It does the job, but just didn't have that wow factor.  Never realized until this visit that was even an option.  I will be sure next time to ask for the walk in shower.  I am sure we will stay again due to the location. Overall it is still a decent place.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>CourtyardHouston, General Manager at Courtyard Houston I-10 West/Park Row, responded to this reviewResponded July 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2016</t>
+  </si>
+  <si>
+    <t>My daughter lives close by in a small apartment.  So when we come to visit this is our Go to hotel.  We have stayed quite a few times.  Our most recent stay was ok.  Not good enough for 5 stars. But still decent.Our beds were getting worn down.  Had that feeling that you were rolling to the edge of the bed.  Also on the second floor it smelt like someone had been smoking.  Maybe it was just musty, but it didn't have that nice clean smell that I like.Another annoying thing was the shower.  On our previous visits, we had a very nice large walk in shower.  This time we were greeted with the basic hotel tub and curve shower curtain.  It does the job, but just didn't have that wow factor.  Never realized until this visit that was even an option.  I will be sure next time to ask for the walk in shower.  I am sure we will stay again due to the location. Overall it is still a decent place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r361854412-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361854412</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Modern and Easy stay</t>
+  </si>
+  <si>
+    <t>Room's were nice and clean. Service was good and so was the room rate. I stayed during the final four, thinking things would be out of hand, but everything seemed fine. Facilities were nice. The only negative I can say is that it is far away from downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>CourtyardHouston, General Manager at Courtyard Houston I-10 West/Park Row, responded to this reviewResponded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Room's were nice and clean. Service was good and so was the room rate. I stayed during the final four, thinking things would be out of hand, but everything seemed fine. Facilities were nice. The only negative I can say is that it is far away from downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r355747804-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355747804</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Nice and New</t>
+  </si>
+  <si>
+    <t>This property is very new and it certainly shows.  Typical Courtyard fashion of friendly staff, delicious breakfast options (not free), ample room in the lobby, an adequate workout room, and easy access to / from the interstate.My only complain would be the speed of the internet at their business center.I checked in online and arrived very early in the morning (1:15) and was greeted by Omar, who gave me my room key, told me about breakfast, and the other amenities and then wished me a good night.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>CourtyardHouston, General Manager at Courtyard Houston I-10 West/Park Row, responded to this reviewResponded March 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2016</t>
+  </si>
+  <si>
+    <t>This property is very new and it certainly shows.  Typical Courtyard fashion of friendly staff, delicious breakfast options (not free), ample room in the lobby, an adequate workout room, and easy access to / from the interstate.My only complain would be the speed of the internet at their business center.I checked in online and arrived very early in the morning (1:15) and was greeted by Omar, who gave me my room key, told me about breakfast, and the other amenities and then wished me a good night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r355424508-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355424508</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>Gorgeous Brand New and with Extra Large Rooms</t>
+  </si>
+  <si>
+    <t>Gorgeous Brand New and with Extra Large Rooms.  Located right off I-10, 2 exits west of the Energy Corridor.  Staff is the best I've ever seen.  Rooms are totally clean and spacious (check out my pics) and modern in every sense.  Bathrooms are larger than most too.  I used to stay at the Courtyard on I-10 and Dairy Ashford for my monthly business trips to Houston, but was booked last time due to the rodeo.  My option was to stay here, and now I'll never go back to the other one.  I had a family emergency and had to head home a day early, and they accommodated me without any hassle whatsoever.  Sleep quality and cleanliness are awesome.  Bistro is typical fare, dollars and hours.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gorgeous Brand New and with Extra Large Rooms.  Located right off I-10, 2 exits west of the Energy Corridor.  Staff is the best I've ever seen.  Rooms are totally clean and spacious (check out my pics) and modern in every sense.  Bathrooms are larger than most too.  I used to stay at the Courtyard on I-10 and Dairy Ashford for my monthly business trips to Houston, but was booked last time due to the rodeo.  My option was to stay here, and now I'll never go back to the other one.  I had a family emergency and had to head home a day early, and they accommodated me without any hassle whatsoever.  Sleep quality and cleanliness are awesome.  Bistro is typical fare, dollars and hours.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r344351576-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344351576</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>One of the newer Courtyards - a delight</t>
+  </si>
+  <si>
+    <t>There is not much to add to the title. Nice brand new interior, a cafe worth grabbing food from and new rooms/beds. What can be better. I only stayed one night, but would consider coming back when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>CourtyardHouston, General Manager at Courtyard Houston I-10 West/Park Row, responded to this reviewResponded February 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2016</t>
+  </si>
+  <si>
+    <t>There is not much to add to the title. Nice brand new interior, a cafe worth grabbing food from and new rooms/beds. What can be better. I only stayed one night, but would consider coming back when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r337894116-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>337894116</t>
+  </si>
+  <si>
+    <t>01/06/2016</t>
+  </si>
+  <si>
+    <t>Nice new hotel!</t>
+  </si>
+  <si>
+    <t>Had the opportunity to stay at this hotel.  New propert!  That is always a plus in my book.Check-in was a breeze.  Brianna was very helpful and so nice.  She is a real asset for this hotel. The room was very well appointed. Beds where quite comfy. No outside noise during the night.The few negatives I had with this hotel. (And it is the reason it is only getting 4 stars). Some of the work was not completed at this hotel. Scaffolding in the front, trim pieces missing on the walls. Just little things, but makes it feel a little like a contstruction site.  Another odd thing was the pillows.  They all had an odd odor to them.  Almost like they were musty.  Luckily I travel with a bottle of febreeze, so that helped.This hotel is conveniently located to I-10. Also for me close to my daughters apartment. So I am 100% sure I will be returning.  Thank you Courtyard for a nice night!MoreShow less</t>
+  </si>
+  <si>
+    <t>Had the opportunity to stay at this hotel.  New propert!  That is always a plus in my book.Check-in was a breeze.  Brianna was very helpful and so nice.  She is a real asset for this hotel. The room was very well appointed. Beds where quite comfy. No outside noise during the night.The few negatives I had with this hotel. (And it is the reason it is only getting 4 stars). Some of the work was not completed at this hotel. Scaffolding in the front, trim pieces missing on the walls. Just little things, but makes it feel a little like a contstruction site.  Another odd thing was the pillows.  They all had an odd odor to them.  Almost like they were musty.  Luckily I travel with a bottle of febreeze, so that helped.This hotel is conveniently located to I-10. Also for me close to my daughters apartment. So I am 100% sure I will be returning.  Thank you Courtyard for a nice night!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r333163594-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333163594</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Nice new Courtyard</t>
+  </si>
+  <si>
+    <t>Nice new hotel. Just opened a couple of months ago. Very contemporary in the Courtyard style. The king room that I stayed in was plenty large enough with a couch and desk area. There was a large TV (I'm guessing it was a 47"), a single serve coffee maker as well as a refrigerator and microwave tucked away nicely in a cabinet. The fitness center is small which may pose a problem when the hotel is full, but all the equipment is new. The hotel is located close to the Children's Hospital and the area seems very safe. There's virtually nothing within walking distance, but jump on I-10 and head west, within 2 or 3 miles you will have more shopping and restaurant choices than you could ask for.  All in all, it's a great hotel for business travel and I will definitely be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Chris G, General Manager at Courtyard Houston I-10 West/Park Row, responded to this reviewResponded December 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2015</t>
+  </si>
+  <si>
+    <t>Nice new hotel. Just opened a couple of months ago. Very contemporary in the Courtyard style. The king room that I stayed in was plenty large enough with a couch and desk area. There was a large TV (I'm guessing it was a 47"), a single serve coffee maker as well as a refrigerator and microwave tucked away nicely in a cabinet. The fitness center is small which may pose a problem when the hotel is full, but all the equipment is new. The hotel is located close to the Children's Hospital and the area seems very safe. There's virtually nothing within walking distance, but jump on I-10 and head west, within 2 or 3 miles you will have more shopping and restaurant choices than you could ask for.  All in all, it's a great hotel for business travel and I will definitely be back!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +919,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +951,1030 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>79</v>
+      </c>
+      <c r="X7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>116</v>
+      </c>
+      <c r="X10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
+        <v>134</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>135</v>
+      </c>
+      <c r="X12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>150</v>
+      </c>
+      <c r="X14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>165</v>
+      </c>
+      <c r="X16" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_142.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_142.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,90 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/08/2018</t>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r607688501-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>8554779</t>
+  </si>
+  <si>
+    <t>607688501</t>
+  </si>
+  <si>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>I stayed at the I-10 West / Park Row Courtyard this past week (2nd time). My experience with Omar Yousuf has been great. I have a bad foot and can barely walk. Omar always greets me at the door and asks if I need any assistance. He makes me feel like family every time I walk by the front desk. When I call down for assistance- no matter what it is, he goes out of his way to ensure I’m taken care of.  Not only does he do this for me, but he does it for everybody that walks thru the door. The 1st time I came there was by accident. For the past 7 years I have been staying at the CY near Kirkwood. They have a great staff as well. It is the personal touch and personality of Omar that made me start driving the extra miles to your hotel. I travel a lot and would have to rate your hotel as my favorite in my 5-state area. As true to experience, your entire staff was Outstanding the rest of my stay. Mitchell Davis was very helpful and friendly too. I will definitely be recommending everybody stay at your hotel from this point forward. Please pass on my sincere appreciation to your staff. Especially, Omar Yousuf!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I stayed at the I-10 West / Park Row Courtyard this past week (2nd time). My experience with Omar Yousuf has been great. I have a bad foot and can barely walk. Omar always greets me at the door and asks if I need any assistance. He makes me feel like family every time I walk by the front desk. When I call down for assistance- no matter what it is, he goes out of his way to ensure I’m taken care of.  Not only does he do this for me, but he does it for everybody that walks thru the door. The 1st time I came there was by accident. For the past 7 years I have been staying at the CY near Kirkwood. They have a great staff as well. It is the personal touch and personality of Omar that made me start driving the extra miles to your hotel. I travel a lot and would have to rate your hotel as my favorite in my 5-state area. As true to experience, your entire staff was Outstanding the rest of my stay. Mitchell Davis was very helpful and friendly too. I will definitely be recommending everybody stay at your hotel from this point forward. Please pass on my sincere appreciation to your staff. Especially, Omar Yousuf!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r579346742-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579346742</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>Extra Large Rooms</t>
+  </si>
+  <si>
+    <t>Very extra large rooms and well located Hotel. The service was very warm and friendly, specially for the guy in the front desk called Omar which provided very detailed guidance for the city locations. The hotel is very near Wood offices.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>CourtyardHouston, General Manager at Courtyard Houston I-10 West/Park Row, responded to this reviewResponded May 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2018</t>
+  </si>
+  <si>
+    <t>Very extra large rooms and well located Hotel. The service was very warm and friendly, specially for the guy in the front desk called Omar which provided very detailed guidance for the city locations. The hotel is very near Wood offices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r569682140-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569682140</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly service </t>
+  </si>
+  <si>
+    <t>I’ve being travelling to Houston from Aberdeen for the last 10 years or so. This was by far my favourite hotel. Very close to the office I was visiting yes, free local  shuttle yes, great rooms yes, tasty breakfast choices for healthy or cheat day yes.. and add the great staff and service and you are my 5* choice. A great hotel for the energy corridor! Thank you for the welcome. I will be back. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>I’ve being travelling to Houston from Aberdeen for the last 10 years or so. This was by far my favourite hotel. Very close to the office I was visiting yes, free local  shuttle yes, great rooms yes, tasty breakfast choices for healthy or cheat day yes.. and add the great staff and service and you are my 5* choice. A great hotel for the energy corridor! Thank you for the welcome. I will be back. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r568554336-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>8554779</t>
-  </si>
-  <si>
     <t>568554336</t>
   </si>
   <si>
@@ -171,9 +243,6 @@
     <t>I would give this property 5 stars easily except for one problem.  At check-in, I requested a room with two beds.  Because I booked and paid for the room through a third party, I was denied due to the rate difference.  The young man at reception was very nice and just doing his job, but this would have been a VERY...EASY....FIX by Marriott.  I didn't put up a fight because it's not really my style, but I REALLY needed a room with two beds and the property was obviously nowhere near capacity.  Again, this is a beautiful hotel with very friendly staff.  I recommend it, but be aware of this issue that I had.MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
@@ -204,9 +273,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>CourtyardHouston, General Manager at Courtyard Houston I-10 West/Park Row, responded to this reviewResponded February 27, 2018</t>
   </si>
   <si>
@@ -237,6 +303,60 @@
     <t>I really enjoy Courtyard Hotels and this first visit to this location didn't disappoint.  Front desk took care of me quickly after a warm greeting.  The GM gave me a quiet room on the top floor and due to my elite status I was given a complimentary market item.  It didn't seem busy at the hotel a few days before Thanksgiving and I called to order some room Service.  It was brought to me within 6-7 minutes by Gabriel who I had met at the front desk.  Helpful and friendly staff set this place apart Gabriel and the GM also recommended and told me how to find a good restaurant not too far away.  Went to Salata and it was excellent.My room was spotlessly clean and very quiet.  A great stay and I hope to return.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r516273094-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516273094</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Attending conference nearby</t>
+  </si>
+  <si>
+    <t>Beautiful clean hotel; although the breakfast was expensive.  I ate twice and both times more than $12.00.  Staff were friendly and helpful.  I would like to have had a jacuzzi or sauna.  I would stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>CourtyardHouston, General Manager at Courtyard Houston I-10 West/Park Row, responded to this reviewResponded September 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2017</t>
+  </si>
+  <si>
+    <t>Beautiful clean hotel; although the breakfast was expensive.  I ate twice and both times more than $12.00.  Staff were friendly and helpful.  I would like to have had a jacuzzi or sauna.  I would stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r494902811-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494902811</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>IMMACULATE!</t>
+  </si>
+  <si>
+    <t>I have stayed here three times and will stay again in the future.  The hotel is immaculately clean.  I feel very safe here as well.    It is very quiet.  Close to the interstate but not so close that you can hear any traffic at all.  The beds have been extremely comfortable.  The lighting is great.  The shower is the best hotel shower I've ever experienced.  The TV is huge.  The people who work here have been very courteous and knowledgeable.  There's a little bistro in the lobby so we could get easy food and coffee.  The hotel appears to be pretty new.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Chris G, General Manager at Courtyard Houston I-10 West/Park Row, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed here three times and will stay again in the future.  The hotel is immaculately clean.  I feel very safe here as well.    It is very quiet.  Close to the interstate but not so close that you can hear any traffic at all.  The beds have been extremely comfortable.  The lighting is great.  The shower is the best hotel shower I've ever experienced.  The TV is huge.  The people who work here have been very courteous and knowledgeable.  There's a little bistro in the lobby so we could get easy food and coffee.  The hotel appears to be pretty new.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r486992002-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -303,6 +423,45 @@
     <t>We were in town two nights for a business meeting, and it was so nice to have a new, clean, and friendly place to stay! The staff were all incredibly friendly and accommodating. The hotel is new, so it wasn't totally surprising that it is so clean, but it was still nice to see it's being well maintained. I also liked the new room configuration; very modern and different from other Courtyards we have stayed in previously. Overall it was a great stay and we would definitely choose this location again on our next trip to Houston. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r466152153-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>466152153</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t>Basic and Good Value</t>
+  </si>
+  <si>
+    <t>Corporate stay. Hotel was clean, in good shape. Neighborhood is new and growing. Nothing in walking distance, other than the Children's Hospital. Food was surprisingly good. Not a full restaurant, more standard bar food, but served with care. Staff pleasant. And easy, uneventful stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Corporate stay. Hotel was clean, in good shape. Neighborhood is new and growing. Nothing in walking distance, other than the Children's Hospital. Food was surprisingly good. Not a full restaurant, more standard bar food, but served with care. Staff pleasant. And easy, uneventful stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r466128614-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>466128614</t>
+  </si>
+  <si>
+    <t>Welcoming presence</t>
+  </si>
+  <si>
+    <t>From Check-in to Check-Out, Lauren and Omar could not have been more pleasant, professional, or personable.  They made my short stay very welcoming and I would recommend this property to anybody traveling to or through the Katy area.Located just North of I-10, it is conveniently located to the interstate yet far enough away to be shielded from the traffic noise.Very nice room w/ a large TV, comfortable beds, and nice bath products.The Bistro has a nice selection of food items or you can try the pantry for any snacks / pop / water / etc...The lobby area has a few booths to hang out or even do some work if you are in need of that and don't want to spend the time in your room.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>From Check-in to Check-Out, Lauren and Omar could not have been more pleasant, professional, or personable.  They made my short stay very welcoming and I would recommend this property to anybody traveling to or through the Katy area.Located just North of I-10, it is conveniently located to the interstate yet far enough away to be shielded from the traffic noise.Very nice room w/ a large TV, comfortable beds, and nice bath products.The Bistro has a nice selection of food items or you can try the pantry for any snacks / pop / water / etc...The lobby area has a few booths to hang out or even do some work if you are in need of that and don't want to spend the time in your room.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r442172990-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -319,9 +478,6 @@
   </si>
   <si>
     <t>December 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>This is my favorite chain and the reason is obvious when you stay here, especially at this particular Courtyard. The management and staff are awesome, the rooms are so quiet and there are woods to look out on at the back of the hotel. The beds are plush and the walk in the showers are huge. They even have a tiny restaurant, with nice wine/cocktail selections and good food.  The booths in the restaurant have there own TV.  Lots of choices for lounging with friends while watching a game in the common area.  We will be staying here every time we come to Houston as long as they keep up the great work. More</t>
@@ -381,6 +537,57 @@
     <t>My daughter lives close by in a small apartment.  So when we come to visit this is our Go to hotel.  We have stayed quite a few times.  Our most recent stay was ok.  Not good enough for 5 stars. But still decent.Our beds were getting worn down.  Had that feeling that you were rolling to the edge of the bed.  Also on the second floor it smelt like someone had been smoking.  Maybe it was just musty, but it didn't have that nice clean smell that I like.Another annoying thing was the shower.  On our previous visits, we had a very nice large walk in shower.  This time we were greeted with the basic hotel tub and curve shower curtain.  It does the job, but just didn't have that wow factor.  Never realized until this visit that was even an option.  I will be sure next time to ask for the walk in shower.  I am sure we will stay again due to the location. Overall it is still a decent place.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r375753078-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>375753078</t>
+  </si>
+  <si>
+    <t>05/23/2016</t>
+  </si>
+  <si>
+    <t>One Night Stay</t>
+  </si>
+  <si>
+    <t>My family had a mini reunion and booked this hotel as it was close to the venue for pur get together. The staff was very friendly, the room was clean and comfortable, and the bathroom was very nice too. I would recommend this hotel to anyoneMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>CourtyardHouston, General Manager at Courtyard Houston I-10 West/Park Row, responded to this reviewResponded May 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2016</t>
+  </si>
+  <si>
+    <t>My family had a mini reunion and booked this hotel as it was close to the venue for pur get together. The staff was very friendly, the room was clean and comfortable, and the bathroom was very nice too. I would recommend this hotel to anyoneMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r373882907-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373882907</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Best Courtyard I Have Stayed At</t>
+  </si>
+  <si>
+    <t>Pros: Brand new, beautiful, modern Courtyard. I have stayed in many Courtyards and this one has been my favorite. The bed was comfortable and that is a first with this brand. Everyone was friendly and helpful who worked there. I would stay again!Cons: They are building a Hampton Inn right next door and there are plans to build a shopping strip in front of the hotel---I never heard any construction noise, but could be a factor. The traffic in this part of town was terrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>CourtyardHouston, General Manager at Courtyard Houston I-10 West/Park Row, responded to this reviewResponded May 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2016</t>
+  </si>
+  <si>
+    <t>Pros: Brand new, beautiful, modern Courtyard. I have stayed in many Courtyards and this one has been my favorite. The bed was comfortable and that is a first with this brand. Everyone was friendly and helpful who worked there. I would stay again!Cons: They are building a Hampton Inn right next door and there are plans to build a shopping strip in front of the hotel---I never heard any construction noise, but could be a factor. The traffic in this part of town was terrible.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r361854412-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -456,6 +663,54 @@
     <t>Gorgeous Brand New and with Extra Large Rooms.  Located right off I-10, 2 exits west of the Energy Corridor.  Staff is the best I've ever seen.  Rooms are totally clean and spacious (check out my pics) and modern in every sense.  Bathrooms are larger than most too.  I used to stay at the Courtyard on I-10 and Dairy Ashford for my monthly business trips to Houston, but was booked last time due to the rodeo.  My option was to stay here, and now I'll never go back to the other one.  I had a family emergency and had to head home a day early, and they accommodated me without any hassle whatsoever.  Sleep quality and cleanliness are awesome.  Bistro is typical fare, dollars and hours.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r349368867-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349368867</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t>Brand new and Beautiful</t>
+  </si>
+  <si>
+    <t>Who doesn't love new shiny things? Well if you don't, this is not the place for you.  This place is beautiful from the moment you walk in.  The decor in the lobby is amazing.  The staff looks professional and smiles when they greet you.  There is a nice bar, and of course, Starbucks, and I believe they're open all night.The room..wow!  It had everything I needed.  A desk, a sitting area, a closet, fridge, microwave, tv, etc..  The bed was comfortable.  It was soft, but just firm enough not to hurt my back.  The pillows were fluffy and abounded the bed. I slept like a baby...the ones that actually sleep through the night.  Lol!The bathroom was most impressive to me because the shower was huge and had great water pressure.  The glass doors make the shower very welcoming. I highly recommend this place to anyone.  The price was reasonable, the location is great because you are minutes away from the hospital, the Berry Event Center, and a ton of other restaurants and businesses.  MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Who doesn't love new shiny things? Well if you don't, this is not the place for you.  This place is beautiful from the moment you walk in.  The decor in the lobby is amazing.  The staff looks professional and smiles when they greet you.  There is a nice bar, and of course, Starbucks, and I believe they're open all night.The room..wow!  It had everything I needed.  A desk, a sitting area, a closet, fridge, microwave, tv, etc..  The bed was comfortable.  It was soft, but just firm enough not to hurt my back.  The pillows were fluffy and abounded the bed. I slept like a baby...the ones that actually sleep through the night.  Lol!The bathroom was most impressive to me because the shower was huge and had great water pressure.  The glass doors make the shower very welcoming. I highly recommend this place to anyone.  The price was reasonable, the location is great because you are minutes away from the hospital, the Berry Event Center, and a ton of other restaurants and businesses.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r346219674-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>346219674</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>Nice but expensive</t>
+  </si>
+  <si>
+    <t>Nice hotel but expensive for what you get.   Rooms were well maintained,  breakfast was good,  lobby was clean;  staff was supportive and assisted with some packages that I needed to be delivered to the hotel;MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>CourtyardHouston, General Manager at Courtyard Houston I-10 West/Park Row, responded to this reviewResponded February 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2016</t>
+  </si>
+  <si>
+    <t>Nice hotel but expensive for what you get.   Rooms were well maintained,  breakfast was good,  lobby was clean;  staff was supportive and assisted with some packages that I needed to be delivered to the hotel;More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r344351576-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -474,12 +729,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>CourtyardHouston, General Manager at Courtyard Houston I-10 West/Park Row, responded to this reviewResponded February 10, 2016</t>
-  </si>
-  <si>
-    <t>Responded February 10, 2016</t>
-  </si>
-  <si>
     <t>There is not much to add to the title. Nice brand new interior, a cafe worth grabbing food from and new rooms/beds. What can be better. I only stayed one night, but would consider coming back when in the area.More</t>
   </si>
   <si>
@@ -526,6 +775,33 @@
   </si>
   <si>
     <t>Nice new hotel. Just opened a couple of months ago. Very contemporary in the Courtyard style. The king room that I stayed in was plenty large enough with a couch and desk area. There was a large TV (I'm guessing it was a 47"), a single serve coffee maker as well as a refrigerator and microwave tucked away nicely in a cabinet. The fitness center is small which may pose a problem when the hotel is full, but all the equipment is new. The hotel is located close to the Children's Hospital and the area seems very safe. There's virtually nothing within walking distance, but jump on I-10 and head west, within 2 or 3 miles you will have more shopping and restaurant choices than you could ask for.  All in all, it's a great hotel for business travel and I will definitely be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8554779-r318040101-Courtyard_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318040101</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick trip. Very nice hotel visit </t>
+  </si>
+  <si>
+    <t>The hotel is right behind two hospitals in Houston / Katy.  Very very convenient if you need to be by the hospitals. Houston Methodist West and Texas children's west. I have posted pictures of my room. I am pleased with some of the new furniture styles in this hotel. The desk is easier to use and better lighting then some others as well as the coffee and refrigerator area. Loved the shower and bathroom setup. Staff were extremely busy but we're always have and helpful. Great choice. Family or work. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>CourtyardHouston, General Manager at Courtyard Houston I-10 West/Park Row, responded to this reviewResponded October 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is right behind two hospitals in Houston / Katy.  Very very convenient if you need to be by the hospitals. Houston Methodist West and Texas children's west. I have posted pictures of my room. I am pleased with some of the new furniture styles in this hotel. The desk is easier to use and better lighting then some others as well as the coffee and refrigerator area. Loved the shower and bathroom setup. Staff were extremely busy but we're always have and helpful. Great choice. Family or work. More</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1336,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1068,7 +1344,9 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
       <c r="Q2" t="n">
         <v>5</v>
       </c>
@@ -1076,19 +1354,15 @@
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
         <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -1104,7 +1378,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -1113,43 +1387,49 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
       <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1165,7 +1445,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1174,47 +1454,43 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1230,7 +1506,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1239,31 +1515,31 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
         <v>75</v>
       </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O5" t="s">
-        <v>62</v>
-      </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
@@ -1273,13 +1549,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -1295,7 +1571,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1304,47 +1580,43 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
         <v>83</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>84</v>
       </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>87</v>
-      </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -1360,7 +1632,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1369,40 +1641,44 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
         <v>90</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>91</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>92</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>93</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>87</v>
-      </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="X7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Y7" t="s">
         <v>94</v>
@@ -1448,21 +1724,31 @@
         <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>102</v>
+      </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -1478,7 +1764,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1487,30 +1773,30 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="n">
         <v>5</v>
       </c>
@@ -1522,10 +1808,14 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>110</v>
+      </c>
+      <c r="X9" t="s">
+        <v>111</v>
+      </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -1541,7 +1831,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1550,34 +1840,32 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
         <v>52</v>
       </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>3</v>
-      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>4</v>
@@ -1586,13 +1874,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="X10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
@@ -1608,7 +1896,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1617,47 +1905,47 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="X11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
@@ -1673,7 +1961,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1682,47 +1970,43 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="X12" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="Y12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
@@ -1738,7 +2022,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1747,47 +2031,47 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
         <v>139</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>140</v>
       </c>
-      <c r="K13" t="s">
-        <v>141</v>
-      </c>
-      <c r="L13" t="s">
-        <v>142</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>133</v>
-      </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="X13" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="Y13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
@@ -1803,7 +2087,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1812,27 +2096,29 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" t="s">
         <v>145</v>
-      </c>
-      <c r="J14" t="s">
-        <v>146</v>
-      </c>
-      <c r="K14" t="s">
-        <v>147</v>
-      </c>
-      <c r="L14" t="s">
-        <v>148</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
       <c r="Q14" t="n">
         <v>4</v>
       </c>
@@ -1845,14 +2131,10 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>150</v>
-      </c>
-      <c r="X14" t="s">
-        <v>151</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
@@ -1868,7 +2150,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1877,43 +2159,39 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
@@ -1929,7 +2207,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -1938,43 +2216,801 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>160</v>
       </c>
-      <c r="J16" t="s">
-        <v>161</v>
-      </c>
-      <c r="K16" t="s">
-        <v>162</v>
-      </c>
-      <c r="L16" t="s">
-        <v>163</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>164</v>
-      </c>
       <c r="O16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" t="s">
         <v>165</v>
       </c>
-      <c r="X16" t="s">
+      <c r="L17" t="s">
         <v>166</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
         <v>167</v>
+      </c>
+      <c r="O17" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>168</v>
+      </c>
+      <c r="X17" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" t="s">
+        <v>175</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>176</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>177</v>
+      </c>
+      <c r="X18" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s">
+        <v>184</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>176</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>185</v>
+      </c>
+      <c r="X19" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s">
+        <v>192</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>193</v>
+      </c>
+      <c r="O20" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>194</v>
+      </c>
+      <c r="X20" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" t="s">
+        <v>200</v>
+      </c>
+      <c r="L21" t="s">
+        <v>201</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>202</v>
+      </c>
+      <c r="O21" t="s">
+        <v>203</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>204</v>
+      </c>
+      <c r="X21" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>208</v>
+      </c>
+      <c r="J22" t="s">
+        <v>209</v>
+      </c>
+      <c r="K22" t="s">
+        <v>210</v>
+      </c>
+      <c r="L22" t="s">
+        <v>211</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>202</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>204</v>
+      </c>
+      <c r="X22" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>214</v>
+      </c>
+      <c r="J23" t="s">
+        <v>215</v>
+      </c>
+      <c r="K23" t="s">
+        <v>216</v>
+      </c>
+      <c r="L23" t="s">
+        <v>217</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>218</v>
+      </c>
+      <c r="O23" t="s">
+        <v>203</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" t="s">
+        <v>223</v>
+      </c>
+      <c r="L24" t="s">
+        <v>224</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>225</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>226</v>
+      </c>
+      <c r="X24" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>230</v>
+      </c>
+      <c r="J25" t="s">
+        <v>231</v>
+      </c>
+      <c r="K25" t="s">
+        <v>232</v>
+      </c>
+      <c r="L25" t="s">
+        <v>233</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>234</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>226</v>
+      </c>
+      <c r="X25" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>237</v>
+      </c>
+      <c r="J26" t="s">
+        <v>238</v>
+      </c>
+      <c r="K26" t="s">
+        <v>239</v>
+      </c>
+      <c r="L26" t="s">
+        <v>240</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>234</v>
+      </c>
+      <c r="O26" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>243</v>
+      </c>
+      <c r="J27" t="s">
+        <v>244</v>
+      </c>
+      <c r="K27" t="s">
+        <v>245</v>
+      </c>
+      <c r="L27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>247</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>248</v>
+      </c>
+      <c r="X27" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64244</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>251</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>252</v>
+      </c>
+      <c r="J28" t="s">
+        <v>253</v>
+      </c>
+      <c r="K28" t="s">
+        <v>254</v>
+      </c>
+      <c r="L28" t="s">
+        <v>255</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>256</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>257</v>
+      </c>
+      <c r="X28" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
